--- a/Web Tech Test Plan.xlsx
+++ b/Web Tech Test Plan.xlsx
@@ -1,35 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Files\Work Related\Fall 2020\CIS 435\Projects\proj1-cis435-fa20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aef782b26370319e/School Documents/2021 Fall/CIS 435-002/Projects/project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F09459-722C-4ABF-9FFA-F3789D2F8D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="518" documentId="13_ncr:1_{E03DC43A-6366-44E8-9ED3-ACA789DF0ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACB6E05E-B4BC-400C-B223-2D9C6C629005}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="September 26, 2020" sheetId="1" r:id="rId1"/>
-    <sheet name="September 28, 2020" sheetId="2" r:id="rId2"/>
+    <sheet name="Nov 24, 2021" sheetId="6" r:id="rId1"/>
+    <sheet name="Nov 25, 2021" sheetId="5" r:id="rId2"/>
+    <sheet name="Nov 26, 2021" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="61">
   <si>
     <t>Test case plan</t>
   </si>
@@ -49,15 +61,9 @@
     <t>Tested by</t>
   </si>
   <si>
-    <t>Bob</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>Sam</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -76,9 +82,6 @@
     <t>Page loads</t>
   </si>
   <si>
-    <t>After the HTML file is opened, the page loads properly with all images.</t>
-  </si>
-  <si>
     <t>Functionality/Characteristics</t>
   </si>
   <si>
@@ -88,26 +91,146 @@
     <t>Overall body theme</t>
   </si>
   <si>
-    <t>When the page is loaded, the appropriate styles are applied for the body and general fonts</t>
-  </si>
-  <si>
-    <t>Background image</t>
-  </si>
-  <si>
-    <t>Styles applied to BG</t>
-  </si>
-  <si>
-    <t>The page loads the appropriate background image</t>
-  </si>
-  <si>
-    <t>Corrected problem in Chrome: forgot normalize CSS</t>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>When the page is loaded, the appropriate styles are applied for the body, game board, buttons, and the appropriate font family is used</t>
+  </si>
+  <si>
+    <t>Edge Passed</t>
+  </si>
+  <si>
+    <t>After the HTML file is opened, the page loads properly with all scripts loaded and ready.</t>
+  </si>
+  <si>
+    <t>Only files are found on NodeJS backend</t>
+  </si>
+  <si>
+    <t>All notes load properly</t>
+  </si>
+  <si>
+    <t>If all notes are removed, the "Add a note" message reappears</t>
+  </si>
+  <si>
+    <t>If notes exist, the "Add a note" message disappears</t>
+  </si>
+  <si>
+    <t>Clicking the "delete" button only deletes the notes that were checked off</t>
+  </si>
+  <si>
+    <t>The "Add a note" and "Edit a note" modal is properly centered in the window</t>
+  </si>
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
+    <t>Table of notes has properly rounded corners</t>
+  </si>
+  <si>
+    <t>Note entries don't overflow their containers</t>
+  </si>
+  <si>
+    <t>Note entry and author properly float right of checkbox</t>
+  </si>
+  <si>
+    <t>If a note is empty but created, the checkbox remains centered</t>
+  </si>
+  <si>
+    <t>API returns appropriate data when getting notes</t>
+  </si>
+  <si>
+    <t>Yes, but getting note names and all note content with it seems like too heavy of a command. Separated notes list and notes content out to their own endpoints.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing notes entries works as expeced. </t>
+  </si>
+  <si>
+    <t>API Deleting notes works as expected, given note entries</t>
+  </si>
+  <si>
+    <t>API Files of notes are created</t>
+  </si>
+  <si>
+    <t>API Reading of notes returns proper string data</t>
+  </si>
+  <si>
+    <t>No, we need to specify 'utf8' for string, otherwise metadata is attached</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Notes Load</t>
+  </si>
+  <si>
+    <t>Notes Messages</t>
+  </si>
+  <si>
+    <t>Notes Updates</t>
+  </si>
+  <si>
+    <t>Notes Editing</t>
+  </si>
+  <si>
+    <t>Notes Styling</t>
+  </si>
+  <si>
+    <t>Get all notes</t>
+  </si>
+  <si>
+    <t>Delete notes (single, multiple)</t>
+  </si>
+  <si>
+    <t>Yes. Better to be a batch operation by default!</t>
+  </si>
+  <si>
+    <t>Write notes to file</t>
+  </si>
+  <si>
+    <t>Notes Write</t>
+  </si>
+  <si>
+    <t>Write notes from front end</t>
+  </si>
+  <si>
+    <t>Yes, notes overwritten if same author is given. List of notes updated after.</t>
+  </si>
+  <si>
+    <t>Read note contents</t>
+  </si>
+  <si>
+    <t>Style was mis-labeled, fixed to properly use "visible" class</t>
+  </si>
+  <si>
+    <t>Directories were listed as blank note entries, so we read the data directory with "withFileTypes" to collect metadata to filter with "isFile()"</t>
+  </si>
+  <si>
+    <t>No, we need to specify 'utf8' for string, otherwise metadata is attached instead of a string!</t>
+  </si>
+  <si>
+    <t>Yes, specified 'utf8' for string, otherwise metadata is attached instead of a string!</t>
+  </si>
+  <si>
+    <t>Yes. Used fixed positioning and translate() css function to properly center modal</t>
+  </si>
+  <si>
+    <t>Switched to flexbox instead and made it dynamic, this allowed rounded elements while keeping automatic organization</t>
+  </si>
+  <si>
+    <t>Yes, Put a limit on number of characters displayed, and represented more with '…'</t>
+  </si>
+  <si>
+    <t>Yes, wrapped in Div and floated that instead</t>
+  </si>
+  <si>
+    <t>Yes, the &lt;p&gt; element is basically collapsed and the checkbox hovers above center. Added unicode equivalent of &amp;nbsp; (\u00A0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,24 +246,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="22"/>
@@ -156,7 +265,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,11 +275,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -230,16 +334,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -249,34 +349,873 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="86">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -302,10 +1241,16 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="85"/>
+      <tableStyleElement type="headerRow" dxfId="84"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF9C0006"/>
+      <color rgb="FFFFC7CE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -613,364 +1558,1411 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370CB70F-2BF9-4483-BECA-3DDEC613F055}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>44100</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="6">
+        <v>44524</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
   </mergeCells>
+  <conditionalFormatting sqref="G21:I1048576">
+    <cfRule type="containsText" dxfId="83" priority="17" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="18" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:I3 G9:I9">
+    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="16" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:I5">
+    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="14" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="12" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="10" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="8" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB14754-C1A9-4FE9-B351-0D59598EDF34}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>44102</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="6">
+        <v>44525</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
   </mergeCells>
+  <conditionalFormatting sqref="G21:I1048576">
+    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="32" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:I3">
+    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="26" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:I5">
+    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="containsText" dxfId="41" priority="21" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="22" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="containsText" dxfId="39" priority="19" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="20" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:I11">
+    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="16" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:I14">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:I10">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:I12">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:I13">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="6">
+        <v>44526</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G1:I3 G9:I10 G12:I13 G15:I15 G17:I1048576">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:I5">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I20">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:I11">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:I14">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:I16">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",G16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",G16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>